--- a/PREGAME/1. ELICITACIÓN/1.3. Historia de Usuario/GN_Matriz de Marco de Trabajo HU  La Italiana.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.3. Historia de Usuario/GN_Matriz de Marco de Trabajo HU  La Italiana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevoe\Desktop\ADS()analisis y diseño\23305_G6_ADS\PREGAME\1. ELICITACIÓN\1.3. Historia de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF007F8-6F57-4E03-B6F8-4CF5268D5B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C53CDE-ADFB-4518-A6C1-44149CB13A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,9 +328,6 @@
     <t>No hay control ni análisis de las ventas</t>
   </si>
   <si>
-    <t>Generar reportes de ventas detallados</t>
-  </si>
-  <si>
     <t>Analizar los ingresos y mejorar la gestión</t>
   </si>
   <si>
@@ -374,6 +371,9 @@
   </si>
   <si>
     <t>REQ009</t>
+  </si>
+  <si>
+    <t>El sistema deber generar reportes de ventas detallados</t>
   </si>
 </sst>
 </file>
@@ -863,13 +863,20 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -896,41 +903,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -973,6 +956,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -997,6 +986,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,7 +1336,7 @@
   <dimension ref="B1:O922"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="66" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1742,22 +1742,22 @@
     </row>
     <row r="13" spans="2:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19">
@@ -1773,33 +1773,33 @@
         <v>70</v>
       </c>
       <c r="M13" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="O13" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>92</v>
@@ -1817,13 +1817,13 @@
         <v>51</v>
       </c>
       <c r="M14" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="O14" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7249,8 +7249,8 @@
     <mergeCell ref="B3:O3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="L6:L10 L12">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7259,8 +7259,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L10 L12">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="L11">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7315,23 +7315,23 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
@@ -7371,15 +7371,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -7394,17 +7394,17 @@
         <v>15</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="55" t="str">
+      <c r="E10" s="58" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,5,0)</f>
         <v>Administrador</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="55" t="str">
+      <c r="H10" s="58" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,11,0)</f>
         <v>No iniciado</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="9"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -7436,15 +7436,15 @@
         <v>85</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="54"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="9"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -7460,17 +7460,17 @@
         <v>4</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="55" t="str">
+      <c r="E13" s="58" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="55" t="str">
+      <c r="H13" s="58" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,7,0)</f>
         <v>Erick Moreira</v>
       </c>
-      <c r="I13" s="54"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="9"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -7501,65 +7501,65 @@
       <c r="C15" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="68" t="str">
+      <c r="D15" s="59" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,3,0)</f>
         <v>El administrador necesita poder gestionar las categorías de productos para mantener la tienda organizada y permitir a los clientes filtrar productos según la categoría.</v>
       </c>
-      <c r="E15" s="77"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="22"/>
       <c r="G15" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="68" t="str">
+      <c r="H15" s="59" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,4,0)</f>
         <v>Para facilitar la organización de los productos y mejorar la experiencia de compra de los clientes.</v>
       </c>
-      <c r="I15" s="82"/>
-      <c r="J15" s="83"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
       <c r="K15" s="22"/>
       <c r="L15" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="38" t="str">
+      <c r="M15" s="83" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,6,0)</f>
         <v>El administrador puede agregar, editar o eliminar categorías desde la sección correspondiente del sistema. Debe verificar que las categorías no estén duplicadas y que no se eliminen categorías asociadas a productos activos.</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="40"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="47"/>
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="28"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="86"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="43"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="50"/>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="28"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="89"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="82"/>
       <c r="K17" s="22"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="46"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7581,41 +7581,41 @@
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="28"/>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="47" t="str">
+      <c r="D19" s="39"/>
+      <c r="E19" s="84" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,14,0)</f>
         <v>Gestión de Categorías</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="49"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="86"/>
       <c r="P19" s="29"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="28"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="89"/>
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7637,63 +7637,63 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="28"/>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="65" t="str">
+      <c r="D22" s="39"/>
+      <c r="E22" s="45" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,12,0)</f>
         <v>Se probará añadiendo, editando y eliminando categorías en el sistema y verificando que no se presenten problemas de duplicación o eliminación incorrecta.</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="59"/>
-      <c r="L22" s="68" t="str">
+      <c r="K22" s="39"/>
+      <c r="L22" s="59" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,13,0)</f>
         <v>Asegurarse de que el sistema notifique al administrador si se intenta eliminar una categoría asociada a productos activos.</v>
       </c>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="70"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
       <c r="P22" s="29"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="28"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="73"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="64"/>
       <c r="P23" s="29"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="28"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="76"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="67"/>
       <c r="P24" s="29"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8710,6 +8710,11 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -8726,11 +8731,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -8766,14 +8766,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6130c624-bec2-48a0-a4e0-dd56eb2f89c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E0ED12E3C12264BAAEFDDE265025732" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="32f0b1cb9a2c496d76c7007acd7f9f73">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6130c624-bec2-48a0-a4e0-dd56eb2f89c2" xmlns:ns4="42803d71-5b3b-4609-9095-d55998e15ed0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31c6dadea4c352185cbf3b554d54ee0c" ns3:_="" ns4:_="">
     <xsd:import namespace="6130c624-bec2-48a0-a4e0-dd56eb2f89c2"/>
@@ -9014,6 +9006,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6130c624-bec2-48a0-a4e0-dd56eb2f89c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9024,16 +9024,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F746B5F-DE20-4F9C-9F5D-6973B28B4CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6130c624-bec2-48a0-a4e0-dd56eb2f89c2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32C973A4-9769-454E-B4F6-27A3044C3767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9052,6 +9042,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F746B5F-DE20-4F9C-9F5D-6973B28B4CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6130c624-bec2-48a0-a4e0-dd56eb2f89c2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052D08E4-4565-4513-A9D0-08F50952937F}">
   <ds:schemaRefs>
